--- a/data/trans_dic/P1412-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1412-Habitat-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.005109222571314643</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.007233933843113217</v>
+        <v>0.007233933843113215</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.006716399915098734</v>
@@ -664,7 +664,7 @@
         <v>0.005358037101086994</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.006650478029424937</v>
+        <v>0.006650478029424936</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001327481927648634</v>
+        <v>0.001323023255521669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001586524917977538</v>
+        <v>0.001548324624598213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002570718822804799</v>
+        <v>0.002569735814666352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002974988468272306</v>
+        <v>0.003010817155287782</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001524322663107173</v>
+        <v>0.001531513344405822</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003834659175181871</v>
+        <v>0.003640655226871545</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003086604684436401</v>
+        <v>0.003152787804530413</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.002373590196541497</v>
+        <v>0.002368985689708187</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004042942530108078</v>
+        <v>0.004045817381764397</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01360634964468013</v>
+        <v>0.01379870946808698</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01328525507030131</v>
+        <v>0.01319222625296544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01212876292067513</v>
+        <v>0.0122690567136881</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01806847960447374</v>
+        <v>0.01712354355427527</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01419251767111323</v>
+        <v>0.01423139897431293</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0126930418909643</v>
+        <v>0.01268965268583274</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01225041809901914</v>
+        <v>0.01303414148840835</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01072212917999176</v>
+        <v>0.01021899336307954</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01023033734767974</v>
+        <v>0.01091765427166232</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.009777857193400647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.006097928272285729</v>
+        <v>0.006097928272285728</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.00640656943157898</v>
@@ -773,7 +773,7 @@
         <v>0.006559972204898907</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.004952609424535491</v>
+        <v>0.00495260942453549</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004254424436330525</v>
+        <v>0.004436613907213897</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004879913051817101</v>
+        <v>0.005256066960053779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00306644460521311</v>
+        <v>0.003012736477966415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002222704953195744</v>
+        <v>0.003028740439385301</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0009760273057665211</v>
+        <v>0.0009715744285414087</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001283676592943926</v>
+        <v>0.001316757839492792</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004367704395856352</v>
+        <v>0.004550236448657388</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003664668654920751</v>
+        <v>0.003911865980656938</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002918762995761168</v>
+        <v>0.00289918839057154</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01937963431361767</v>
+        <v>0.02046840061087178</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01784881500012206</v>
+        <v>0.01792863040976261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01132405978773543</v>
+        <v>0.01102371199665154</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01392633615275843</v>
+        <v>0.01347733799809697</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.009513870395642677</v>
+        <v>0.009457826052734979</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.007615253793282512</v>
+        <v>0.008212639660442063</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01317958690014065</v>
+        <v>0.01342567457860773</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01121099250116941</v>
+        <v>0.01152509797899091</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007936374443124989</v>
+        <v>0.008029001310060719</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001353990728697958</v>
+        <v>0.001345569324527658</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005094028746711114</v>
+        <v>0.003910350150132809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00587435684811085</v>
+        <v>0.00534998092292216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005249299332532361</v>
+        <v>0.005217265101663164</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001616902823032382</v>
+        <v>0.00160960576972501</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0008458516198978435</v>
+        <v>0.001502711393989636</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004223576046270258</v>
+        <v>0.004595698436805735</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004105477408146045</v>
+        <v>0.004774586531562185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004631662383696484</v>
+        <v>0.004288900932751376</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01355437745890022</v>
+        <v>0.01397543989251239</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02158343394442297</v>
+        <v>0.02070924245686233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02263539468324182</v>
+        <v>0.02199838148225626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02152473604506852</v>
+        <v>0.02154493979232963</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01542467839568563</v>
+        <v>0.01549638575113828</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.008622347690407269</v>
+        <v>0.008651947717466081</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01345853590024526</v>
+        <v>0.0138712077004238</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01394395727346219</v>
+        <v>0.01500095838661973</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01356932030146076</v>
+        <v>0.01377054872662584</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.007148499551245775</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.007458359342986812</v>
+        <v>0.00745835934298681</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.004669698781302029</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002094665827672661</v>
+        <v>0.002097955502577548</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001625256209431387</v>
+        <v>0.00181109390058963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007760833848715013</v>
+        <v>0.00757259026538618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001013723637684958</v>
+        <v>0.001027398040614969</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003095081148513225</v>
+        <v>0.002997256970624672</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004225850804544371</v>
+        <v>0.003965616238687302</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00212894675593942</v>
+        <v>0.002110078115944471</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003476431426093972</v>
+        <v>0.003421387527744402</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006695671989715947</v>
+        <v>0.006709488708218555</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01089004315160717</v>
+        <v>0.01199980703916066</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01064930585936386</v>
+        <v>0.01187569144113526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02041132728573408</v>
+        <v>0.0214672662091609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.009922829720266592</v>
+        <v>0.0101087137314496</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01454366610274055</v>
+        <v>0.01424948849182214</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01261534459895926</v>
+        <v>0.01217345052087895</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0089510311586722</v>
+        <v>0.009294763436206331</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01049487324457573</v>
+        <v>0.01060540814831331</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01372754184302901</v>
+        <v>0.0141681462908904</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.0065338430882265</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.007391094912388612</v>
+        <v>0.007391094912388611</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004170432431788456</v>
+        <v>0.004293645873095654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00502843061707087</v>
+        <v>0.004948112413642336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006731233987816244</v>
+        <v>0.006851925036920759</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004639602994534573</v>
+        <v>0.004564279721192182</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003276703467563192</v>
+        <v>0.002936232799719968</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003854078814197794</v>
+        <v>0.004043609608884344</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005125836831640547</v>
+        <v>0.005001638946723603</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004701321920392155</v>
+        <v>0.004553402413509961</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006079877791644498</v>
+        <v>0.00589654893317487</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.00999646013862643</v>
+        <v>0.01023464188048124</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01146527210404807</v>
+        <v>0.01122857982533052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01302156050044997</v>
+        <v>0.0128947921508043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01023603320841323</v>
+        <v>0.0102525380343186</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.00853567851896409</v>
+        <v>0.008478363341387284</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.007834197100607449</v>
+        <v>0.00760035676228193</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.009353159953865386</v>
+        <v>0.009189034475953262</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.008731547006761977</v>
+        <v>0.008641182615515011</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.009552261817480871</v>
+        <v>0.009506170074070844</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1071</v>
+        <v>1045</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2074</v>
+        <v>2099</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2807</v>
+        <v>2665</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4323</v>
+        <v>4416</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3199</v>
+        <v>3193</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5752</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9572</v>
+        <v>9707</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8965</v>
+        <v>8902</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8377</v>
+        <v>8474</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12595</v>
+        <v>11936</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9549</v>
+        <v>9575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9291</v>
+        <v>9289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17157</v>
+        <v>18255</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14450</v>
+        <v>13772</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14555</v>
+        <v>15533</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4331</v>
+        <v>4516</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4989</v>
+        <v>5374</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3212</v>
+        <v>3156</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2284</v>
+        <v>3113</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1374</v>
+        <v>1409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8935</v>
+        <v>9309</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7569</v>
+        <v>8079</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6181</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19727</v>
+        <v>20836</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18249</v>
+        <v>18331</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11862</v>
+        <v>11548</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14313</v>
+        <v>13852</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9922</v>
+        <v>9864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8150</v>
+        <v>8789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26962</v>
+        <v>27465</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23155</v>
+        <v>23803</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16807</v>
+        <v>17003</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3869</v>
+        <v>2970</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4699</v>
+        <v>4279</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>685</v>
+        <v>1217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6482</v>
+        <v>7053</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6341</v>
+        <v>7375</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7457</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10269</v>
+        <v>10588</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16394</v>
+        <v>15730</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18105</v>
+        <v>17596</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16728</v>
+        <v>16744</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12109</v>
+        <v>12165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6985</v>
+        <v>7009</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20656</v>
+        <v>21289</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21537</v>
+        <v>23170</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21847</v>
+        <v>22171</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1524</v>
+        <v>1698</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7684</v>
+        <v>7497</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3231</v>
+        <v>3128</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4721</v>
+        <v>4431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4255</v>
+        <v>4217</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6888</v>
+        <v>6779</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14110</v>
+        <v>14139</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10321</v>
+        <v>11373</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9984</v>
+        <v>11134</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20208</v>
+        <v>21254</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10428</v>
+        <v>10624</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15180</v>
+        <v>14873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14094</v>
+        <v>13601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17890</v>
+        <v>18577</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20794</v>
+        <v>21013</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28928</v>
+        <v>29856</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14291</v>
+        <v>14713</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17068</v>
+        <v>16796</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23749</v>
+        <v>24175</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16484</v>
+        <v>16217</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11614</v>
+        <v>10408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14374</v>
+        <v>15081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35777</v>
+        <v>34910</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32622</v>
+        <v>31596</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44126</v>
+        <v>42796</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34256</v>
+        <v>35072</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38917</v>
+        <v>38114</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45942</v>
+        <v>45495</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36368</v>
+        <v>36427</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30255</v>
+        <v>30052</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29218</v>
+        <v>28346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>65283</v>
+        <v>64137</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>60587</v>
+        <v>59960</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>69328</v>
+        <v>68993</v>
       </c>
     </row>
     <row r="24">
